--- a/germania 2015-2018.xlsx
+++ b/germania 2015-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentiunict-my.sharepoint.com/personal/marco_platania_unict_it/Documents/Lavori su Catania/Ruggieri/ecosistemi industriali/seconda fascia A/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prgca\Desktop\Lavoro\Progetti_2023\EU_Ecosystems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{29316D8C-FABF-4361-8442-91C0CEC9BE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BF08DE1-C9A2-413B-9B7A-270F01E4B597}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21897228-A3D2-4D0E-8E0A-4008D40A4B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{56CC7C64-AB2E-4C20-88F4-5E622BB4D00C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56CC7C64-AB2E-4C20-88F4-5E622BB4D00C}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="62">
   <si>
     <t>CPA_A01</t>
   </si>
@@ -212,12 +212,6 @@
   </si>
   <si>
     <t>CPA_S96</t>
-  </si>
-  <si>
-    <t>CPA_T</t>
-  </si>
-  <si>
-    <t>CPA_U</t>
   </si>
   <si>
     <t>CPA_O</t>
@@ -678,23 +672,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008FE1ED-BCC0-4737-BDA3-533BF2688D2B}">
-  <dimension ref="A1:BM65"/>
+  <dimension ref="A1:BK63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BE54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:BM1"/>
+      <selection pane="bottomRight" activeCell="BL1" sqref="BL1:BM1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
-    <col min="2" max="65" width="8.75" style="4" customWidth="1"/>
-    <col min="66" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="13.08203125" style="4" customWidth="1"/>
+    <col min="2" max="63" width="8.75" style="4" customWidth="1"/>
+    <col min="64" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -826,7 +820,7 @@
         <v>42</v>
       </c>
       <c r="AS1" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT1" s="9" t="s">
         <v>43</v>
@@ -856,10 +850,10 @@
         <v>51</v>
       </c>
       <c r="BC1" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BD1" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BE1" s="9" t="s">
         <v>52</v>
@@ -882,14 +876,8 @@
       <c r="BK1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="BL1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM1" s="9" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="2" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1079,14 +1067,8 @@
       <c r="BK2" s="7">
         <v>30</v>
       </c>
-      <c r="BL2" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1276,14 +1258,8 @@
       <c r="BK3" s="8">
         <v>15</v>
       </c>
-      <c r="BL3" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1473,14 +1449,8 @@
       <c r="BK4" s="7">
         <v>0</v>
       </c>
-      <c r="BL4" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1670,14 +1640,8 @@
       <c r="BK5" s="8">
         <v>14</v>
       </c>
-      <c r="BL5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1867,14 +1831,8 @@
       <c r="BK6" s="7">
         <v>65</v>
       </c>
-      <c r="BL6" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -2064,14 +2022,8 @@
       <c r="BK7" s="8">
         <v>21</v>
       </c>
-      <c r="BL7" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2261,14 +2213,8 @@
       <c r="BK8" s="7">
         <v>1083</v>
       </c>
-      <c r="BL8" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -2458,14 +2404,8 @@
       <c r="BK9" s="8">
         <v>22</v>
       </c>
-      <c r="BL9" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -2655,14 +2595,8 @@
       <c r="BK10" s="7">
         <v>24</v>
       </c>
-      <c r="BL10" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM10" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -2852,14 +2786,8 @@
       <c r="BK11" s="8">
         <v>223</v>
       </c>
-      <c r="BL11" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM11" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -3049,14 +2977,8 @@
       <c r="BK12" s="7">
         <v>480</v>
       </c>
-      <c r="BL12" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM12" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -3246,14 +3168,8 @@
       <c r="BK13" s="8">
         <v>0</v>
       </c>
-      <c r="BL13" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM13" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -3443,14 +3359,8 @@
       <c r="BK14" s="7">
         <v>7</v>
       </c>
-      <c r="BL14" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM14" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -3640,14 +3550,8 @@
       <c r="BK15" s="8">
         <v>149</v>
       </c>
-      <c r="BL15" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM15" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -3837,14 +3741,8 @@
       <c r="BK16" s="7">
         <v>0</v>
       </c>
-      <c r="BL16" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM16" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -4034,14 +3932,8 @@
       <c r="BK17" s="8">
         <v>19</v>
       </c>
-      <c r="BL17" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM17" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -4231,14 +4123,8 @@
       <c r="BK18" s="7">
         <v>23</v>
       </c>
-      <c r="BL18" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM18" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -4428,14 +4314,8 @@
       <c r="BK19" s="8">
         <v>267</v>
       </c>
-      <c r="BL19" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM19" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -4625,14 +4505,8 @@
       <c r="BK20" s="7">
         <v>8</v>
       </c>
-      <c r="BL20" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM20" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -4822,14 +4696,8 @@
       <c r="BK21" s="8">
         <v>0</v>
       </c>
-      <c r="BL21" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM21" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -5019,14 +4887,8 @@
       <c r="BK22" s="7">
         <v>0</v>
       </c>
-      <c r="BL22" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM22" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -5216,14 +5078,8 @@
       <c r="BK23" s="8">
         <v>1</v>
       </c>
-      <c r="BL23" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM23" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -5413,14 +5269,8 @@
       <c r="BK24" s="7">
         <v>6</v>
       </c>
-      <c r="BL24" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM24" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
@@ -5610,14 +5460,8 @@
       <c r="BK25" s="8">
         <v>708</v>
       </c>
-      <c r="BL25" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM25" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -5807,14 +5651,8 @@
       <c r="BK26" s="7">
         <v>190</v>
       </c>
-      <c r="BL26" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM26" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -6004,14 +5842,8 @@
       <c r="BK27" s="8">
         <v>371</v>
       </c>
-      <c r="BL27" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM27" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -6201,14 +6033,8 @@
       <c r="BK28" s="7">
         <v>343</v>
       </c>
-      <c r="BL28" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM28" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -6398,14 +6224,8 @@
       <c r="BK29" s="8">
         <v>20</v>
       </c>
-      <c r="BL29" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM29" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -6595,14 +6415,8 @@
       <c r="BK30" s="7">
         <v>661</v>
       </c>
-      <c r="BL30" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM30" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
@@ -6792,14 +6606,8 @@
       <c r="BK31" s="8">
         <v>311</v>
       </c>
-      <c r="BL31" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM31" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>30</v>
       </c>
@@ -6989,14 +6797,8 @@
       <c r="BK32" s="7">
         <v>7</v>
       </c>
-      <c r="BL32" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM32" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
@@ -7186,14 +6988,8 @@
       <c r="BK33" s="8">
         <v>0</v>
       </c>
-      <c r="BL33" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM33" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
@@ -7383,14 +7179,8 @@
       <c r="BK34" s="7">
         <v>16</v>
       </c>
-      <c r="BL34" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM34" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
@@ -7580,14 +7370,8 @@
       <c r="BK35" s="8">
         <v>0</v>
       </c>
-      <c r="BL35" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM35" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
@@ -7777,14 +7561,8 @@
       <c r="BK36" s="7">
         <v>61</v>
       </c>
-      <c r="BL36" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM36" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
@@ -7974,14 +7752,8 @@
       <c r="BK37" s="8">
         <v>68</v>
       </c>
-      <c r="BL37" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM37" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
@@ -8171,14 +7943,8 @@
       <c r="BK38" s="7">
         <v>94</v>
       </c>
-      <c r="BL38" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM38" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
@@ -8368,14 +8134,8 @@
       <c r="BK39" s="8">
         <v>7</v>
       </c>
-      <c r="BL39" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM39" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
@@ -8565,14 +8325,8 @@
       <c r="BK40" s="7">
         <v>329</v>
       </c>
-      <c r="BL40" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM40" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
@@ -8762,14 +8516,8 @@
       <c r="BK41" s="8">
         <v>269</v>
       </c>
-      <c r="BL41" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM41" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
@@ -8959,14 +8707,8 @@
       <c r="BK42" s="7">
         <v>899</v>
       </c>
-      <c r="BL42" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM42" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>41</v>
       </c>
@@ -9156,14 +8898,8 @@
       <c r="BK43" s="8">
         <v>64</v>
       </c>
-      <c r="BL43" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM43" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>42</v>
       </c>
@@ -9353,16 +9089,10 @@
       <c r="BK44" s="7">
         <v>0</v>
       </c>
-      <c r="BL44" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM44" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B45" s="7">
         <v>398</v>
@@ -9550,14 +9280,8 @@
       <c r="BK45" s="7">
         <v>721</v>
       </c>
-      <c r="BL45" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM45" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>43</v>
       </c>
@@ -9747,14 +9471,8 @@
       <c r="BK46" s="8">
         <v>245</v>
       </c>
-      <c r="BL46" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM46" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>44</v>
       </c>
@@ -9944,14 +9662,8 @@
       <c r="BK47" s="7">
         <v>41</v>
       </c>
-      <c r="BL47" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM47" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>45</v>
       </c>
@@ -10141,14 +9853,8 @@
       <c r="BK48" s="8">
         <v>0</v>
       </c>
-      <c r="BL48" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM48" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>46</v>
       </c>
@@ -10338,14 +10044,8 @@
       <c r="BK49" s="7">
         <v>50</v>
       </c>
-      <c r="BL49" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM49" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>47</v>
       </c>
@@ -10535,14 +10235,8 @@
       <c r="BK50" s="8">
         <v>40</v>
       </c>
-      <c r="BL50" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM50" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
@@ -10732,14 +10426,8 @@
       <c r="BK51" s="7">
         <v>574</v>
       </c>
-      <c r="BL51" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM51" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>49</v>
       </c>
@@ -10929,14 +10617,8 @@
       <c r="BK52" s="8">
         <v>43</v>
       </c>
-      <c r="BL52" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM52" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>50</v>
       </c>
@@ -11126,14 +10808,8 @@
       <c r="BK53" s="7">
         <v>5</v>
       </c>
-      <c r="BL53" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM53" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="54" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>51</v>
       </c>
@@ -11323,16 +10999,10 @@
       <c r="BK54" s="8">
         <v>1142</v>
       </c>
-      <c r="BL54" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM54" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" s="8">
         <v>250</v>
@@ -11520,16 +11190,10 @@
       <c r="BK55" s="8">
         <v>53</v>
       </c>
-      <c r="BL55" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM55" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="56" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" s="7">
         <v>20</v>
@@ -11717,14 +11381,8 @@
       <c r="BK56" s="7">
         <v>1</v>
       </c>
-      <c r="BL56" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM56" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="57" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>52</v>
       </c>
@@ -11914,14 +11572,8 @@
       <c r="BK57" s="7">
         <v>0</v>
       </c>
-      <c r="BL57" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM57" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="58" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>53</v>
       </c>
@@ -12111,14 +11763,8 @@
       <c r="BK58" s="8">
         <v>0</v>
       </c>
-      <c r="BL58" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM58" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="59" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>54</v>
       </c>
@@ -12308,14 +11954,8 @@
       <c r="BK59" s="7">
         <v>0</v>
       </c>
-      <c r="BL59" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM59" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="60" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>55</v>
       </c>
@@ -12505,14 +12145,8 @@
       <c r="BK60" s="8">
         <v>0</v>
       </c>
-      <c r="BL60" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM60" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="61" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>56</v>
       </c>
@@ -12702,14 +12336,8 @@
       <c r="BK61" s="7">
         <v>197</v>
       </c>
-      <c r="BL61" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM61" s="7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="62" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>57</v>
       </c>
@@ -12899,14 +12527,8 @@
       <c r="BK62" s="8">
         <v>0</v>
       </c>
-      <c r="BL62" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM62" s="8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="63" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>58</v>
       </c>
@@ -13095,406 +12717,6 @@
       </c>
       <c r="BK63" s="7">
         <v>6119</v>
-      </c>
-      <c r="BL63" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM63" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:65" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="8">
-        <v>0</v>
-      </c>
-      <c r="C64" s="8">
-        <v>0</v>
-      </c>
-      <c r="D64" s="8">
-        <v>0</v>
-      </c>
-      <c r="E64" s="8">
-        <v>0</v>
-      </c>
-      <c r="F64" s="8">
-        <v>0</v>
-      </c>
-      <c r="G64" s="8">
-        <v>0</v>
-      </c>
-      <c r="H64" s="8">
-        <v>0</v>
-      </c>
-      <c r="I64" s="8">
-        <v>0</v>
-      </c>
-      <c r="J64" s="8">
-        <v>0</v>
-      </c>
-      <c r="K64" s="8">
-        <v>0</v>
-      </c>
-      <c r="L64" s="8">
-        <v>0</v>
-      </c>
-      <c r="M64" s="8">
-        <v>0</v>
-      </c>
-      <c r="N64" s="8">
-        <v>0</v>
-      </c>
-      <c r="O64" s="8">
-        <v>0</v>
-      </c>
-      <c r="P64" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="8">
-        <v>0</v>
-      </c>
-      <c r="R64" s="8">
-        <v>0</v>
-      </c>
-      <c r="S64" s="8">
-        <v>0</v>
-      </c>
-      <c r="T64" s="8">
-        <v>0</v>
-      </c>
-      <c r="U64" s="8">
-        <v>0</v>
-      </c>
-      <c r="V64" s="8">
-        <v>0</v>
-      </c>
-      <c r="W64" s="8">
-        <v>0</v>
-      </c>
-      <c r="X64" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS64" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AZ64" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA64" s="8">
-        <v>0</v>
-      </c>
-      <c r="BB64" s="8">
-        <v>0</v>
-      </c>
-      <c r="BC64" s="8">
-        <v>0</v>
-      </c>
-      <c r="BD64" s="8">
-        <v>0</v>
-      </c>
-      <c r="BE64" s="8">
-        <v>0</v>
-      </c>
-      <c r="BF64" s="8">
-        <v>0</v>
-      </c>
-      <c r="BG64" s="8">
-        <v>0</v>
-      </c>
-      <c r="BH64" s="8">
-        <v>0</v>
-      </c>
-      <c r="BI64" s="8">
-        <v>0</v>
-      </c>
-      <c r="BJ64" s="8">
-        <v>0</v>
-      </c>
-      <c r="BK64" s="8">
-        <v>0</v>
-      </c>
-      <c r="BL64" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM64" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:65" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="7">
-        <v>0</v>
-      </c>
-      <c r="C65" s="7">
-        <v>0</v>
-      </c>
-      <c r="D65" s="7">
-        <v>0</v>
-      </c>
-      <c r="E65" s="7">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7">
-        <v>0</v>
-      </c>
-      <c r="G65" s="7">
-        <v>0</v>
-      </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>0</v>
-      </c>
-      <c r="J65" s="7">
-        <v>0</v>
-      </c>
-      <c r="K65" s="7">
-        <v>0</v>
-      </c>
-      <c r="L65" s="7">
-        <v>0</v>
-      </c>
-      <c r="M65" s="7">
-        <v>0</v>
-      </c>
-      <c r="N65" s="7">
-        <v>0</v>
-      </c>
-      <c r="O65" s="7">
-        <v>0</v>
-      </c>
-      <c r="P65" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="7">
-        <v>0</v>
-      </c>
-      <c r="R65" s="7">
-        <v>0</v>
-      </c>
-      <c r="S65" s="7">
-        <v>0</v>
-      </c>
-      <c r="T65" s="7">
-        <v>0</v>
-      </c>
-      <c r="U65" s="7">
-        <v>0</v>
-      </c>
-      <c r="V65" s="7">
-        <v>0</v>
-      </c>
-      <c r="W65" s="7">
-        <v>0</v>
-      </c>
-      <c r="X65" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AX65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AY65" s="7">
-        <v>0</v>
-      </c>
-      <c r="AZ65" s="7">
-        <v>0</v>
-      </c>
-      <c r="BA65" s="7">
-        <v>0</v>
-      </c>
-      <c r="BB65" s="7">
-        <v>0</v>
-      </c>
-      <c r="BC65" s="7">
-        <v>0</v>
-      </c>
-      <c r="BD65" s="7">
-        <v>0</v>
-      </c>
-      <c r="BE65" s="7">
-        <v>0</v>
-      </c>
-      <c r="BF65" s="7">
-        <v>0</v>
-      </c>
-      <c r="BG65" s="7">
-        <v>0</v>
-      </c>
-      <c r="BH65" s="7">
-        <v>0</v>
-      </c>
-      <c r="BI65" s="7">
-        <v>0</v>
-      </c>
-      <c r="BJ65" s="7">
-        <v>0</v>
-      </c>
-      <c r="BK65" s="7">
-        <v>0</v>
-      </c>
-      <c r="BL65" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM65" s="7">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13504,20 +12726,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B721E9B-6A9D-402D-B4B4-22E437E53797}">
-  <dimension ref="A1:BM66"/>
+  <dimension ref="A1:BK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:BM1"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="44" width="8.875"/>
-    <col min="46" max="54" width="8.875"/>
-    <col min="57" max="252" width="8.875"/>
+    <col min="1" max="44" width="8.83203125"/>
+    <col min="46" max="54" width="8.83203125"/>
+    <col min="57" max="250" width="8.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -13649,7 +12871,7 @@
         <v>42</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>43</v>
@@ -13679,10 +12901,10 @@
         <v>51</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BD1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BE1" s="2" t="s">
         <v>52</v>
@@ -13705,14 +12927,8 @@
       <c r="BK1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BL1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -13902,14 +13118,8 @@
       <c r="BK2" s="1">
         <v>25</v>
       </c>
-      <c r="BL2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -14099,14 +13309,8 @@
       <c r="BK3" s="1">
         <v>15</v>
       </c>
-      <c r="BL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -14296,14 +13500,8 @@
       <c r="BK4" s="1">
         <v>0</v>
       </c>
-      <c r="BL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -14493,14 +13691,8 @@
       <c r="BK5" s="1">
         <v>14</v>
       </c>
-      <c r="BL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -14690,14 +13882,8 @@
       <c r="BK6" s="1">
         <v>64</v>
       </c>
-      <c r="BL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -14887,14 +14073,8 @@
       <c r="BK7" s="1">
         <v>28</v>
       </c>
-      <c r="BL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -15084,14 +14264,8 @@
       <c r="BK8" s="1">
         <v>807</v>
       </c>
-      <c r="BL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -15281,14 +14455,8 @@
       <c r="BK9" s="1">
         <v>22</v>
       </c>
-      <c r="BL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -15478,14 +14646,8 @@
       <c r="BK10" s="1">
         <v>23</v>
       </c>
-      <c r="BL10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM10" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -15675,14 +14837,8 @@
       <c r="BK11" s="1">
         <v>277</v>
       </c>
-      <c r="BL11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM11" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -15872,14 +15028,8 @@
       <c r="BK12" s="1">
         <v>582</v>
       </c>
-      <c r="BL12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM12" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -16069,14 +15219,8 @@
       <c r="BK13" s="1">
         <v>0</v>
       </c>
-      <c r="BL13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM13" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -16266,14 +15410,8 @@
       <c r="BK14" s="1">
         <v>17</v>
       </c>
-      <c r="BL14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM14" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -16463,14 +15601,8 @@
       <c r="BK15" s="1">
         <v>138</v>
       </c>
-      <c r="BL15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM15" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -16660,14 +15792,8 @@
       <c r="BK16" s="1">
         <v>0</v>
       </c>
-      <c r="BL16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM16" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -16857,14 +15983,8 @@
       <c r="BK17" s="1">
         <v>29</v>
       </c>
-      <c r="BL17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM17" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -17054,14 +16174,8 @@
       <c r="BK18" s="1">
         <v>30</v>
       </c>
-      <c r="BL18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM18" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -17251,14 +16365,8 @@
       <c r="BK19" s="1">
         <v>329</v>
       </c>
-      <c r="BL19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM19" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -17448,14 +16556,8 @@
       <c r="BK20" s="1">
         <v>11</v>
       </c>
-      <c r="BL20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM20" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -17645,14 +16747,8 @@
       <c r="BK21" s="1">
         <v>0</v>
       </c>
-      <c r="BL21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM21" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -17842,14 +16938,8 @@
       <c r="BK22" s="1">
         <v>0</v>
       </c>
-      <c r="BL22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM22" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -18039,14 +17129,8 @@
       <c r="BK23" s="1">
         <v>1</v>
       </c>
-      <c r="BL23" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM23" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -18236,14 +17320,8 @@
       <c r="BK24" s="1">
         <v>8</v>
       </c>
-      <c r="BL24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM24" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -18433,14 +17511,8 @@
       <c r="BK25" s="1">
         <v>880</v>
       </c>
-      <c r="BL25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM25" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -18630,14 +17702,8 @@
       <c r="BK26" s="1">
         <v>224</v>
       </c>
-      <c r="BL26" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM26" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -18827,14 +17893,8 @@
       <c r="BK27" s="1">
         <v>391</v>
       </c>
-      <c r="BL27" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM27" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -19024,14 +18084,8 @@
       <c r="BK28" s="1">
         <v>376</v>
       </c>
-      <c r="BL28" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM28" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -19221,14 +18275,8 @@
       <c r="BK29" s="1">
         <v>17</v>
       </c>
-      <c r="BL29" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM29" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -19418,14 +18466,8 @@
       <c r="BK30" s="1">
         <v>745</v>
       </c>
-      <c r="BL30" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM30" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -19615,14 +18657,8 @@
       <c r="BK31" s="1">
         <v>437</v>
       </c>
-      <c r="BL31" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM31" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -19812,14 +18848,8 @@
       <c r="BK32" s="1">
         <v>8</v>
       </c>
-      <c r="BL32" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM32" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -20009,14 +19039,8 @@
       <c r="BK33" s="1">
         <v>0</v>
       </c>
-      <c r="BL33" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM33" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -20206,14 +19230,8 @@
       <c r="BK34" s="1">
         <v>10</v>
       </c>
-      <c r="BL34" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM34" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -20403,14 +19421,8 @@
       <c r="BK35" s="1">
         <v>0</v>
       </c>
-      <c r="BL35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM35" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -20600,14 +19612,8 @@
       <c r="BK36" s="1">
         <v>74</v>
       </c>
-      <c r="BL36" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM36" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -20797,14 +19803,8 @@
       <c r="BK37" s="1">
         <v>73</v>
       </c>
-      <c r="BL37" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM37" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -20994,14 +19994,8 @@
       <c r="BK38" s="1">
         <v>103</v>
       </c>
-      <c r="BL38" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM38" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -21191,14 +20185,8 @@
       <c r="BK39" s="1">
         <v>12</v>
       </c>
-      <c r="BL39" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM39" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -21388,14 +20376,8 @@
       <c r="BK40" s="1">
         <v>333</v>
       </c>
-      <c r="BL40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM40" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -21585,14 +20567,8 @@
       <c r="BK41" s="1">
         <v>376</v>
       </c>
-      <c r="BL41" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM41" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -21782,14 +20758,8 @@
       <c r="BK42" s="1">
         <v>832</v>
       </c>
-      <c r="BL42" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM42" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -21979,14 +20949,8 @@
       <c r="BK43" s="1">
         <v>67</v>
       </c>
-      <c r="BL43" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM43" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -22176,16 +21140,10 @@
       <c r="BK44" s="1">
         <v>0</v>
       </c>
-      <c r="BL44" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM44" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B45" s="1">
         <v>410</v>
@@ -22373,14 +21331,8 @@
       <c r="BK45" s="1">
         <v>783</v>
       </c>
-      <c r="BL45" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM45" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
@@ -22570,14 +21522,8 @@
       <c r="BK46" s="1">
         <v>292</v>
       </c>
-      <c r="BL46" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM46" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
@@ -22767,14 +21713,8 @@
       <c r="BK47" s="1">
         <v>42</v>
       </c>
-      <c r="BL47" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM47" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
@@ -22964,14 +21904,8 @@
       <c r="BK48" s="1">
         <v>0</v>
       </c>
-      <c r="BL48" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM48" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>46</v>
       </c>
@@ -23161,14 +22095,8 @@
       <c r="BK49" s="1">
         <v>52</v>
       </c>
-      <c r="BL49" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM49" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
@@ -23358,14 +22286,8 @@
       <c r="BK50" s="1">
         <v>49</v>
       </c>
-      <c r="BL50" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM50" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
@@ -23555,14 +22477,8 @@
       <c r="BK51" s="1">
         <v>627</v>
       </c>
-      <c r="BL51" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM51" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>49</v>
       </c>
@@ -23752,14 +22668,8 @@
       <c r="BK52" s="1">
         <v>47</v>
       </c>
-      <c r="BL52" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM52" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
@@ -23949,14 +22859,8 @@
       <c r="BK53" s="1">
         <v>6</v>
       </c>
-      <c r="BL53" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM53" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="54" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
@@ -24146,16 +23050,10 @@
       <c r="BK54" s="1">
         <v>1639</v>
       </c>
-      <c r="BL54" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM54" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1">
         <v>291</v>
@@ -24343,16 +23241,10 @@
       <c r="BK55" s="1">
         <v>62</v>
       </c>
-      <c r="BL55" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM55" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="56" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1">
         <v>22</v>
@@ -24540,14 +23432,8 @@
       <c r="BK56" s="1">
         <v>1</v>
       </c>
-      <c r="BL56" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM56" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="57" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>52</v>
       </c>
@@ -24737,14 +23623,8 @@
       <c r="BK57" s="1">
         <v>0</v>
       </c>
-      <c r="BL57" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM57" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="58" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>53</v>
       </c>
@@ -24934,14 +23814,8 @@
       <c r="BK58" s="1">
         <v>0</v>
       </c>
-      <c r="BL58" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM58" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="59" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>54</v>
       </c>
@@ -25131,14 +24005,8 @@
       <c r="BK59" s="1">
         <v>0</v>
       </c>
-      <c r="BL59" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM59" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="60" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>55</v>
       </c>
@@ -25328,14 +24196,8 @@
       <c r="BK60" s="1">
         <v>0</v>
       </c>
-      <c r="BL60" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM60" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="61" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>56</v>
       </c>
@@ -25525,14 +24387,8 @@
       <c r="BK61" s="1">
         <v>178</v>
       </c>
-      <c r="BL61" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM61" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="62" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>57</v>
       </c>
@@ -25722,14 +24578,8 @@
       <c r="BK62" s="1">
         <v>0</v>
       </c>
-      <c r="BL62" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM62" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="63" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>58</v>
       </c>
@@ -25919,409 +24769,9 @@
       <c r="BK63" s="1">
         <v>5862</v>
       </c>
-      <c r="BL63" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM63" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="64" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="1">
-        <v>0</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1">
-        <v>0</v>
-      </c>
-      <c r="K64" s="1">
-        <v>0</v>
-      </c>
-      <c r="L64" s="1">
-        <v>0</v>
-      </c>
-      <c r="M64" s="1">
-        <v>0</v>
-      </c>
-      <c r="N64" s="1">
-        <v>0</v>
-      </c>
-      <c r="O64" s="1">
-        <v>0</v>
-      </c>
-      <c r="P64" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>0</v>
-      </c>
-      <c r="R64" s="1">
-        <v>0</v>
-      </c>
-      <c r="S64" s="1">
-        <v>0</v>
-      </c>
-      <c r="T64" s="1">
-        <v>0</v>
-      </c>
-      <c r="U64" s="1">
-        <v>0</v>
-      </c>
-      <c r="V64" s="1">
-        <v>0</v>
-      </c>
-      <c r="W64" s="1">
-        <v>0</v>
-      </c>
-      <c r="X64" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ64" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA64" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB64" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC64" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD64" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE64" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF64" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG64" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH64" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI64" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ64" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK64" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL64" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="1">
-        <v>0</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0</v>
-      </c>
-      <c r="F65" s="1">
-        <v>0</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0</v>
-      </c>
-      <c r="J65" s="1">
-        <v>0</v>
-      </c>
-      <c r="K65" s="1">
-        <v>0</v>
-      </c>
-      <c r="L65" s="1">
-        <v>0</v>
-      </c>
-      <c r="M65" s="1">
-        <v>0</v>
-      </c>
-      <c r="N65" s="1">
-        <v>0</v>
-      </c>
-      <c r="O65" s="1">
-        <v>0</v>
-      </c>
-      <c r="P65" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="1">
-        <v>0</v>
-      </c>
-      <c r="R65" s="1">
-        <v>0</v>
-      </c>
-      <c r="S65" s="1">
-        <v>0</v>
-      </c>
-      <c r="T65" s="1">
-        <v>0</v>
-      </c>
-      <c r="U65" s="1">
-        <v>0</v>
-      </c>
-      <c r="V65" s="1">
-        <v>0</v>
-      </c>
-      <c r="W65" s="1">
-        <v>0</v>
-      </c>
-      <c r="X65" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="B66" s="3"/>
+    <row r="64" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B64" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
